--- a/TEST_DATA/CM_Login.xlsx
+++ b/TEST_DATA/CM_Login.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="18960" windowHeight="11775"/>
@@ -27,20 +27,20 @@
     <t>CM_Domain</t>
   </si>
   <si>
-    <t>CustPMAuto</t>
-  </si>
-  <si>
     <t>welcome123</t>
   </si>
   <si>
     <t>Century</t>
   </si>
+  <si>
+    <t>custpmauto</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +100,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -178,6 +183,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -212,6 +218,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -387,14 +394,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -440,7 +445,7 @@
     <col min="44" max="44" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,15 +456,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -469,24 +474,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
